--- a/supplier_details.xlsx
+++ b/supplier_details.xlsx
@@ -93,13 +93,13 @@
     <t>Rendezvous Hotels</t>
   </si>
   <si>
+    <t>tr2@test.com</t>
+  </si>
+  <si>
+    <t>Toyota Camry 2015 full option</t>
+  </si>
+  <si>
     <t>Alappuzha Tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opel Astra 2014 </t>
-  </si>
-  <si>
-    <t>tr2@test.com</t>
   </si>
 </sst>
 </file>
@@ -447,10 +447,15 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -510,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -537,7 +542,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
